--- a/exploratory/data/tables/terminated_ongoing_trials_tabledata.xlsx
+++ b/exploratory/data/tables/terminated_ongoing_trials_tabledata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonahbukovac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonahbukovac/Desktop/#keto-rev/modified xlsx tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550F1BFB-0F6B-104A-B243-641DEECC5FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B940F542-6156-D24B-B3D9-ED1AC0F92139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="7860" windowWidth="34200" windowHeight="20160" xr2:uid="{C471BA0F-17ED-754C-92C2-4D7A276D29CD}"/>
+    <workbookView xWindow="7100" yWindow="780" windowWidth="27100" windowHeight="20140" xr2:uid="{C471BA0F-17ED-754C-92C2-4D7A276D29CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
   <si>
     <t>Trial ID</t>
   </si>
@@ -296,7 +296,13 @@
     <t>Stereotactic radiosurgery</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>MB Endpoint</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -690,15 +696,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFA523A-E0B2-914C-A34A-82FB427E6A42}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,8 +726,11 @@
       <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -743,8 +752,11 @@
       <c r="G2" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -766,8 +778,11 @@
       <c r="G3" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -789,8 +804,11 @@
       <c r="G4" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -812,8 +830,11 @@
       <c r="G5" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -835,8 +856,11 @@
       <c r="G6" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -858,8 +882,11 @@
       <c r="G7" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +908,11 @@
       <c r="G8" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,8 +934,11 @@
       <c r="G9" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +960,11 @@
       <c r="G10" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -950,8 +986,11 @@
       <c r="G11" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -973,8 +1012,11 @@
       <c r="G12" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -996,8 +1038,11 @@
       <c r="G13" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1019,8 +1064,11 @@
       <c r="G14" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,8 +1090,11 @@
       <c r="G15" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1065,8 +1116,11 @@
       <c r="G16" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1088,8 +1142,11 @@
       <c r="G17" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1111,8 +1168,11 @@
       <c r="G18" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1134,8 +1194,11 @@
       <c r="G19" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1157,8 +1220,11 @@
       <c r="G20" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,8 +1246,11 @@
       <c r="G21" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1201,10 +1270,13 @@
         <v>2022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1226,8 +1298,11 @@
       <c r="G23" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1248,6 +1323,9 @@
       </c>
       <c r="G24" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
